--- a/Keyword Creation/N9 - PLACE OF RESIDENCY REQUIRED.xlsx
+++ b/Keyword Creation/N9 - PLACE OF RESIDENCY REQUIRED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t xml:space="preserve">LA POSIBLE INCOMPETENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANIFIESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABIENDO RESULTADO NEGATIVA LA DILIGENCIA DE REQUIRIMIENTO DE PAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTE LO QUE A SU DERECHO CONVENGA</t>
   </si>
   <si>
     <t xml:space="preserve">N9 - TIME FRAME</t>
@@ -278,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,6 +317,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,18 +341,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B61" activeCellId="0" sqref="B61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.9919028340081"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.89068825910931"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="1.39271255060729"/>
@@ -632,90 +645,142 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,23 +828,23 @@
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,7 +860,23 @@
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
